--- a/ShortcutKeys/Eclipse_Guidewire/eclipseshortcutkeys.xlsx
+++ b/ShortcutKeys/Eclipse_Guidewire/eclipseshortcutkeys.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\CodingData\ShortcutKeys\Eclipse_Guidewire\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vikas.Gautam\Desktop\GitV2\ShortcutKeys\Eclipse_Guidewire\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4248C34A-660E-4559-9B07-B51434327260}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Eclipse And Guidewire Shortcuts" sheetId="1" r:id="rId1"/>
-    <sheet name="Debugging" sheetId="2" r:id="rId2"/>
+    <sheet name="EclipseShortcuts" sheetId="3" r:id="rId2"/>
+    <sheet name="Debugging" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Eclipse And Guidewire Shortcuts'!$A$1:$C$38</definedName>
@@ -23,18 +25,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="121">
   <si>
     <t>CTRL+SHIFT+I</t>
   </si>
@@ -358,12 +354,60 @@
   </si>
   <si>
     <t>CTRL+F9</t>
+  </si>
+  <si>
+    <t>To open list of suggestions</t>
+  </si>
+  <si>
+    <t>SYSOUT+CTRL+SPACE</t>
+  </si>
+  <si>
+    <t>To print system.out.println()</t>
+  </si>
+  <si>
+    <t>CTRL+SHIFT+X</t>
+  </si>
+  <si>
+    <t>change case to upper</t>
+  </si>
+  <si>
+    <t>CTRL+SHIFT+Y</t>
+  </si>
+  <si>
+    <t>change case to lower</t>
+  </si>
+  <si>
+    <t>ALT+UPARROW</t>
+  </si>
+  <si>
+    <t>to move a line up</t>
+  </si>
+  <si>
+    <t>ALT+DOWNARROW</t>
+  </si>
+  <si>
+    <t>to move a line down</t>
+  </si>
+  <si>
+    <t>open any resource</t>
+  </si>
+  <si>
+    <t>open only classes and enums</t>
+  </si>
+  <si>
+    <t>CTRL+T</t>
+  </si>
+  <si>
+    <t>Entire hierarchy</t>
+  </si>
+  <si>
+    <t>To go to last edit position</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -737,22 +781,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -772,7 +816,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -783,7 +827,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -794,7 +838,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -805,7 +849,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -816,7 +860,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -827,7 +871,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -838,7 +882,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -852,7 +896,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -863,7 +907,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -877,7 +921,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -888,7 +932,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -899,7 +943,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -910,7 +954,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -921,7 +965,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -932,7 +976,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -943,7 +987,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -957,7 +1001,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -968,7 +1012,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -979,7 +1023,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -993,7 +1037,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -1007,7 +1051,7 @@
       <c r="F22" s="4"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -1018,7 +1062,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -1029,7 +1073,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -1043,7 +1087,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -1054,7 +1098,7 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -1065,7 +1109,7 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -1076,7 +1120,7 @@
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -1087,7 +1131,7 @@
       <c r="F29" s="4"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -1098,7 +1142,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -1109,7 +1153,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -1123,7 +1167,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>78</v>
       </c>
@@ -1137,7 +1181,7 @@
       <c r="F33" s="4"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -1151,7 +1195,7 @@
       <c r="F34" s="4"/>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>83</v>
       </c>
@@ -1165,7 +1209,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>85</v>
       </c>
@@ -1176,7 +1220,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>87</v>
       </c>
@@ -1187,7 +1231,7 @@
       <c r="F37" s="4"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>91</v>
       </c>
@@ -1198,7 +1242,7 @@
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>95</v>
       </c>
@@ -1209,7 +1253,7 @@
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>98</v>
       </c>
@@ -1220,7 +1264,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>101</v>
       </c>
@@ -1237,7 +1281,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>104</v>
       </c>
@@ -1261,23 +1305,122 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA63E4A-8875-4001-BB4B-2EEEEE2A05E3}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C1" s="1" t="s">
         <v>92</v>
       </c>
@@ -1288,7 +1431,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -1299,7 +1442,7 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -1310,7 +1453,7 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>72</v>
       </c>
@@ -1321,7 +1464,7 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -1332,7 +1475,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -1343,7 +1486,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>85</v>
       </c>
